--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/10/seed4/result_data_RandomForest.xlsx
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.3986</v>
+        <v>6.380899999999993</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.376399999999999</v>
+        <v>6.479199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.42709999999999</v>
+        <v>9.309699999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.093700000000002</v>
+        <v>6.085900000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.452399999999995</v>
+        <v>5.422599999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.409999999999999</v>
+        <v>5.256</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.360499999999999</v>
+        <v>5.589400000000003</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
